--- a/medicine/Enfance/Skeleton_Key/Skeleton_Key.xlsx
+++ b/medicine/Enfance/Skeleton_Key/Skeleton_Key.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Skeleton Key, sous-titré L'Île de tous les dangers, est le troisième roman de la série Alex Rider écrite par Anthony Horowitz. Il est publié le 8 juillet 2002 au Royaume-Uni puis le 7 février 2003 en France.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mystérieux trafic inquiète les autorités américaines. Celles-ci demandent à leurs confrères britanniques de leur prêter Alex Rider, le seul agent suffisamment jeune pour noyer les soupçons. La mission d'Alex est de faire de son mieux, laissant faire deux agents plus âgés. Mais Alex n'est pas décidé à se laisser faire...
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse                    </t>
